--- a/biology/Zoologie/Dasypeltis/Dasypeltis.xlsx
+++ b/biology/Zoologie/Dasypeltis/Dasypeltis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dasypeltis est un genre de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dasypeltis est un genre de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 13 espèces de ce genre se rencontrent en Afrique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 13 espèces de ce genre se rencontrent en Afrique.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre présentent la particularité de s'alimenter exclusivement d’œufs. Elles sont de fait non venimeuses. Selon les espèces leur taille varie entre 30 et 100 cm et leur couleur varie du brun clair au gris olive foncé avec parfois des taches noires. Leur pupille est verticale et de forme elliptique.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (7 mai 2017)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (7 mai 2017) :
 Dasypeltis abyssina (Duméril, Bibron &amp; Duméril, 1854)
 Dasypeltis atra Sternfeld, 1912
 Dasypeltis bazi Saleh &amp; Sarhan, 2016
@@ -617,7 +635,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Wagler, 1830 : Natürliches System der Amphibien, mit vorangehender Classification der Säugetiere und Vögel. Ein Beitrag zur vergleichenden Zoologie. 1.0. Cotta, München, Stuttgart and Tübingen, p. 1-354 (texte intégral).</t>
         </is>
